--- a/My Products.xlsx
+++ b/My Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MacBook\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MacBook\Desktop\My Products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE20D2-146E-432F-99EF-AE9C44D07F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F691A3C8-3041-4E6E-9E63-EDBDEE4DD8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>15 % on Sans Club</t>
   </si>
@@ -63,16 +63,28 @@
   </si>
   <si>
     <t>B07D2KRYC2</t>
+  </si>
+  <si>
+    <t>B083N5GYYT</t>
+  </si>
+  <si>
+    <t>B00P1PALRG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,7 +442,7 @@
   <dimension ref="B3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,11 +538,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="2"/>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>31.98</v>
+      </c>
+      <c r="C7" s="6">
+        <v>53.02</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:D8" si="0">0.15*B7</f>
+        <v>4.7969999999999997</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ref="E7:E8" si="1">0.1*C7</f>
+        <v>5.3020000000000005</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7:F8" si="2">SUM(B7,D7,E7)</f>
+        <v>42.079000000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:G8" si="3">C7-F7</f>
+        <v>10.941000000000003</v>
+      </c>
+      <c r="I7" s="7">
+        <v>980264618</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>30.98</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>4.6470000000000002</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>40.627000000000002</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
+        <v>9.3729999999999976</v>
+      </c>
+      <c r="I8" s="7">
+        <v>980094616</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I9" s="2"/>
@@ -557,6 +623,7 @@
       <c r="I16" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
